--- a/biology/Botanique/Hugh_Bryan_Spencer_Womersley/Hugh_Bryan_Spencer_Womersley.xlsx
+++ b/biology/Botanique/Hugh_Bryan_Spencer_Womersley/Hugh_Bryan_Spencer_Womersley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh Bryan Spencer Womersley (1922-2011) est un phycologue australien.
 Il est le fils de Herbert Womersley (1889-1962), entomologiste et acarologue australien.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Articles scientifiques
-(en) Womersley H.B.S., 1949. Studies on the marine algae of southern Australia. No 3. Notes on Dictyopteris Lamouroux. Transactions of the Royal Society of South Australia 73: 113–116, 1 fig, Plate XXII.
+          <t>Articles scientifiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Womersley H.B.S., 1949. Studies on the marine algae of southern Australia. No 3. Notes on Dictyopteris Lamouroux. Transactions of the Royal Society of South Australia 73: 113–116, 1 fig, Plate XXII.
 (en) Womersley H.B.S. &amp; Shepley E.A., 1959. Studies on the Sarcomenia group of the Rhodophyta. Australian Journal of Botany 7: 168–223, 110 figs, 5 plates.
 (en) Shepley E.A. &amp; Womersley H.B.S., 1960. Sympodophyllum, a new genus of Delesseriaceae (Rhodophyta) from South Australia. Nova Hedwigia 1(3-4): 383–388, Plate 76.
 (en) Womersley H.B.S., 1964. The morphology and taxonomy of Cystophora and related genera (Phaeophyta). Australian Journal of Botany 12: 53–110, 48 figs, 16 plates, DOI 10.1071/BT9640053.
@@ -543,9 +560,43 @@
 (en) Gordon-Mills E.M. &amp; Womersley H.B.S., 1987. The genus Chondria C. Agardh (Rhodomelaceae, Rhodophyta) in southern Australia. Australian Journal of Botany 35: 477–565, 29 figs.
 (en) Edyvane K.S. &amp; Womersley H.B.S., 1993. Morphology and taxonomy of Rhodoglossum gigartinoides (Sonder) comb. nov. (Gigartinaceae, Rhodophyta) from Australia and New Zealand. Phycologia 32: 237–250, 27 figs, DOI 10.2216/i0031-8884-32-4-237.1.
 (en) Guiry M.D. &amp; Womersley H.B.S., 1993. Capreolia implexa gen. et sp. nov. in Australia and New Zealand (Gelidiales, Rhodophyta); an intertidal red alga with an unusual life history. Phycologia 32: 266–277.
-(en) Johansen H.W. &amp; Womersley H.B.S., 1994. Jania (Corallinales, Rhodophyta) in southern Australia. Australian Systematic Botany 7: 605–625, 42 figs.
-En tant qu'éditeur pour la série "The marine benthic flora of Southern Australia"
-(en) Womersley H.B.S., 1984. The marine benthic flora of Southern Australia, Part I. in Handbooks of the flora of South Australia. Adélaïde, 357 pages (lien).
+(en) Johansen H.W. &amp; Womersley H.B.S., 1994. Jania (Corallinales, Rhodophyta) in southern Australia. Australian Systematic Botany 7: 605–625, 42 figs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hugh_Bryan_Spencer_Womersley</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugh_Bryan_Spencer_Womersley</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En tant qu'éditeur pour la série "The marine benthic flora of Southern Australia"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Womersley H.B.S., 1984. The marine benthic flora of Southern Australia, Part I. in Handbooks of the flora of South Australia. Adélaïde, 357 pages (lien).
 (en) Womersley H.B.S., 1987. The marine benthic flora of Southern Australia, Part II. in Handbooks of the flora of South Australia. Adélaïde, 497 pages (lien).
 (en) Womersley H.B.S., 1987. Phaeophyta. 481 pp., 169 figs, 1 table, 8 plates, 4 maps. Adelaide: South Australian Government Printing Division.
 (en) Womersley H.B.S., 1994. The marine benthic flora of southern Australia. Part IIIA. Bangiophyceae and Florideophyceae (Acrochaetiales, Nemaliales, Gelidiales, Hildenbrandiales and Gigartinales sensu lato). (Womersley, H.B.S. Eds), pp. 118–142. Canberra: Australian Biological Resources Study.
@@ -559,7 +610,7 @@
 (en) Womersley H.B.S., 1996. The marine benthic flora of southern Australia - Part IIIB - Gracilariales, Rhodymeniales, Corallinales and Bonnemaisoniales. Vol. 5 pp. 1–392, 160 figs. Canberra &amp; Adelaide: Australian Biological Resources Study &amp; the State Herbarium of South Australia.
 (en) Womersley H.B.S., 1998. The marine benthic flora of southern Australia - Part IIIC. Ceramiales - Ceramiaceae, Dasyaceae. pp. 535. Canberra &amp; Adelaide: Australian Biological Resources Study &amp; State Herbarium of South Australia.
 (en) Womersley H.B.S. &amp; Wollaston E.M., 1998. Tribe Pterothamnieae.
-(en) Womersley H.B.S., 2003. The marine benthic flora of southern Australia - Part IIID Ceramiales - Delesseriaceae, Sarcomeniaceae, Rhodomelaceae. pp. [1]–533. Canberra &amp; Adelaide: Australian Biological Resources Study &amp; State Herbarium of South Australia.</t>
+(en) Womersley H.B.S., 2003. The marine benthic flora of southern Australia - Part IIID Ceramiales - Delesseriaceae, Sarcomeniaceae, Rhodomelaceae. pp. –533. Canberra &amp; Adelaide: Australian Biological Resources Study &amp; State Herbarium of South Australia.</t>
         </is>
       </c>
     </row>
